--- a/biology/Zoologie/Hypercompe/Hypercompe.xlsx
+++ b/biology/Zoologie/Hypercompe/Hypercompe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypercompe est un genre de lépidoptères (papillons) américains de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FUNET Tree of Life  (3 novembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (3 novembre 2020) :
 Hypercompe albescens (Hampson, 1901)
 Hypercompe confusa (Druce, 1884)
 Hypercompe suffusa (Schaus, 1889)
@@ -553,13 +567,13 @@
 Hypercompe jaguarina (Schaus, 1921)
 Hypercompe dognini (Rothschild, 1910)
 Hypercompe robusta (Dognin, 1891)
-Hypercompe cunigunda (Stoll, [1781])
-Hypercompe orsa (Cramer, [1777])
+Hypercompe cunigunda (Stoll, )
+Hypercompe orsa (Cramer, )
 Hypercompe persephone (Tessmann, 1928)
 Hypercompe anomala (Burmeister, 1883)
 Hypercompe decora (Walker, 1855)
 Hypercompe orbiculata (Oberthür, 1881)
-Hypercompe abdominalis (Walker, [1865])
+Hypercompe abdominalis (Walker, )
 Hypercompe annexa (Oberthür, 1881)
 Hypercompe detectiva (Oberthür, 1881)
 Hypercompe detecta (Oberthür, 1881)
@@ -574,8 +588,8 @@
 Hypercompe conspersa (Walker, 1866)
 Hypercompe dubia (Rothschild, 1922)
 Hypercompe trinitatis (Rothschild, 1910)
-Hypercompe icasia (Cramer, [1777])
-Hypercompe eridanus (Cramer, [1775])
+Hypercompe icasia (Cramer, )
+Hypercompe eridanus (Cramer, )
 Hypercompe mielkei Watson &amp; Goodger, 1986
 Hypercompe mus (Oberthür, 1881)
 Hypercompe castronis (Strand, 1919)
@@ -587,10 +601,10 @@
 Hypercompe andensis (Rothschild, 1922)
 Hypercompe nigriplaga (Walker, 1855)
 Hypercompe burmeisteri (Rothschild, 1910)
-Hypercompe scribonia (Stoll, [1790])
+Hypercompe scribonia (Stoll, )
 Hypercompe beckeri Watson &amp; Goodger, 1986
 Hypercompe obscura (Schaus, 1901)
-Hypercompe nemophila (Herrich-Schäffer, [1853])
+Hypercompe nemophila (Herrich-Schäffer, )
 Hypercompe neurophylla (Walker, 1856)
 Hypercompe bricenoi (Rothschild, 1909)
 Hypercompe ockendeni (Rothschild, 1909)
